--- a/info.xlsx
+++ b/info.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,65 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>javascript minifier</t>
-  </si>
-  <si>
-    <t>https://www.digitalocean.com/community/tools/minify</t>
-  </si>
-  <si>
-    <t>https://beautifytools.com/javascript-minifier.php</t>
-  </si>
-  <si>
-    <t>https://skalman.github.io/UglifyJS-online/</t>
-  </si>
-  <si>
-    <t>https://www.minifier.org/</t>
-  </si>
-  <si>
-    <t>https://www.toptal.com/designers/htmlarrows/letters/</t>
-  </si>
-  <si>
-    <t>https://www.photopea.com/</t>
-  </si>
-  <si>
-    <t>https://tinypng.com/</t>
-  </si>
-  <si>
-    <t>https://iconmonstr.com/</t>
-  </si>
-  <si>
-    <t>banka ikona</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://vw.joealden.com/</t>
   </si>
   <si>
-    <t>opis sta je</t>
-  </si>
-  <si>
-    <t>naziv</t>
-  </si>
-  <si>
-    <t>https://jsonformatter.curiousconcept.com/</t>
-  </si>
-  <si>
-    <t>https://jsonlint.com/</t>
-  </si>
-  <si>
-    <t>https://www.fontsquirrel.com/tools/webfont-generator</t>
-  </si>
-  <si>
-    <t>https://www.codewars.com/</t>
-  </si>
-  <si>
-    <t>https://google-webfonts-helper.herokuapp.com/fonts/roboto?subsets=latin</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>uvrstiti posebnu rubliku obavezne stvari tj obavezne prakse za svaki page</t>
   </si>
   <si>
@@ -95,14 +42,55 @@
     <t>* stop skrol kad je mob menu otvoren</t>
   </si>
   <si>
-    <t>* i svaki hover efekat u media query hover:hover</t>
+    <t>FRONTENDERS HELPER</t>
+  </si>
+  <si>
+    <t>ubaciti link do google translate I synonims</t>
+  </si>
+  <si>
+    <t>ubaciti linkove do sajtova poslednje generacije sa besplatnim fontovima</t>
+  </si>
+  <si>
+    <t>napraviti poseban section za online generatore</t>
+  </si>
+  <si>
+    <t>https://cubic-bezier.com/#.17,.67,.83,.67</t>
+  </si>
+  <si>
+    <t>https://www.cssmatic.com/box-shadow</t>
+  </si>
+  <si>
+    <t>https://webcode.tools/generators/css/drop-shadow</t>
+  </si>
+  <si>
+    <t>https://dropshadow.io/</t>
+  </si>
+  <si>
+    <t>generator nepreavilnih oblika</t>
+  </si>
+  <si>
+    <t>https://www.cssmatic.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raditi na FEHu
+ ikonice za min 4 layouta
+ da na klik menja boju pozadine stranice
+ ubaciti px to vw converter
+ u konverteru pocetnu piskelazu prilagoditi odabranom layout-u
+</t>
+  </si>
+  <si>
+    <t>napraviti</t>
+  </si>
+  <si>
+    <t>napraviti gore filter, sta da se vidi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +127,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -167,13 +172,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,175 +481,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F51"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="101.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="4" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="5" t="s">
-        <v>23</v>
-      </c>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B16" r:id="rId7"/>
-    <hyperlink ref="B19" r:id="rId8"/>
-    <hyperlink ref="B22" r:id="rId9"/>
-    <hyperlink ref="B21" r:id="rId10"/>
-    <hyperlink ref="B20" r:id="rId11"/>
-    <hyperlink ref="B32" r:id="rId12"/>
-    <hyperlink ref="B35" r:id="rId13"/>
-    <hyperlink ref="B38" r:id="rId14"/>
-    <hyperlink ref="B45" r:id="rId15"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="99" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="126" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" location=".17,.67,.83,.67" display="https://cubic-bezier.com/ - .17,.67,.83,.67"/>
+    <hyperlink ref="A8" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId3"/>
+    <hyperlink ref="A10" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>https://vw.joealden.com/</t>
   </si>
@@ -84,6 +84,63 @@
   </si>
   <si>
     <t>napraviti gore filter, sta da se vidi</t>
+  </si>
+  <si>
+    <t>https://freeicons.io/</t>
+  </si>
+  <si>
+    <t>https://www.reshot.com/free-svg-icons/item/laptop-Y6XNMWGB8C/</t>
+  </si>
+  <si>
+    <t>https://svgcrop.com/</t>
+  </si>
+  <si>
+    <t>https://www.img2go.com/crop-image</t>
+  </si>
+  <si>
+    <t>simple svg cropper!</t>
+  </si>
+  <si>
+    <t>proper cropper!</t>
+  </si>
+  <si>
+    <t>96.000vw</t>
+  </si>
+  <si>
+    <t>https://transfonter.org/</t>
+  </si>
+  <si>
+    <t>font generator</t>
+  </si>
+  <si>
+    <t>amatic</t>
+  </si>
+  <si>
+    <t>Avartequero Personal Use Only</t>
+  </si>
+  <si>
+    <t>Haettenschweiler</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>Kozuka Mincho Pr6N H</t>
+  </si>
+  <si>
+    <t>Luthon Southard Serif</t>
+  </si>
+  <si>
+    <t>Segoe UI</t>
+  </si>
+  <si>
+    <t>Segoe UI Black</t>
+  </si>
+  <si>
+    <t>trajan pro</t>
+  </si>
+  <si>
+    <t>Tw Cen MT Condensed</t>
   </si>
 </sst>
 </file>
@@ -481,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C22"/>
+  <dimension ref="B1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -537,25 +594,115 @@
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="11"/>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="B24" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/info.xlsx
+++ b/info.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="COLORS" sheetId="3" r:id="rId3"/>
+    <sheet name="CODE OPTIMISERS" sheetId="4" r:id="rId4"/>
+    <sheet name="TYPOGRAPHY" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>https://vw.joealden.com/</t>
   </si>
@@ -141,6 +144,84 @@
   </si>
   <si>
     <t>Tw Cen MT Condensed</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/colors/colors_picker.asp</t>
+  </si>
+  <si>
+    <t>https://colors.muz.li/</t>
+  </si>
+  <si>
+    <t>https://color.adobe.com/create/color-wheel</t>
+  </si>
+  <si>
+    <t>https://www.canva.com/colors/color-wheel/</t>
+  </si>
+  <si>
+    <t>https://coolors.co/373f51-008dd5-dfbbb1-f56476-e43f6f</t>
+  </si>
+  <si>
+    <t>basic color picker</t>
+  </si>
+  <si>
+    <t>Muzli palette generator</t>
+  </si>
+  <si>
+    <t>W3 color picker</t>
+  </si>
+  <si>
+    <t>simple palette generator</t>
+  </si>
+  <si>
+    <t>Adobe color workshop</t>
+  </si>
+  <si>
+    <t>diverse color generator</t>
+  </si>
+  <si>
+    <t>Canva color wheel</t>
+  </si>
+  <si>
+    <t>simple color wheel</t>
+  </si>
+  <si>
+    <t>Coolors palette generator</t>
+  </si>
+  <si>
+    <t>clean palette generator</t>
+  </si>
+  <si>
+    <t>https://pleeease.iamvdo.me/play/</t>
+  </si>
+  <si>
+    <t>Pleeease stylesheet cleaner</t>
+  </si>
+  <si>
+    <t>...with vendor prefix generator</t>
+  </si>
+  <si>
+    <t>https://www.digitalocean.com/community/tools/minify</t>
+  </si>
+  <si>
+    <t>neat Javascript minifier</t>
+  </si>
+  <si>
+    <t>DigitalOcean JS minifier</t>
+  </si>
+  <si>
+    <t>https://www.fontsquirrel.com/tools/webfont-generator</t>
+  </si>
+  <si>
+    <t>https://gwfh.mranftl.com/fonts</t>
+  </si>
+  <si>
+    <t>https://www.newocr.com/</t>
+  </si>
+  <si>
+    <t>Optical Character Recognition</t>
+  </si>
+  <si>
+    <t>extract text from image</t>
   </si>
 </sst>
 </file>
@@ -229,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -252,6 +333,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -711,7 +796,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -785,4 +870,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="88.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="88.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="88.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>https://vw.joealden.com/</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>extract text from image</t>
+  </si>
+  <si>
+    <t>https://www.chartjs.org/docs/latest/getting-started/installation.html</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1062,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1095,7 +1098,9 @@
       <c r="A4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
@@ -1123,7 +1128,9 @@
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>